--- a/csmsSpringMVC/WebRoot/upload/download/用户模版.xlsx
+++ b/csmsSpringMVC/WebRoot/upload/download/用户模版.xlsx
@@ -81,7 +81,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -385,61 +385,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="1"/>
+    <col min="1" max="4" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="48.21875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="72" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2"/>
-      <c r="B2"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3"/>
-      <c r="B3"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4"/>
-      <c r="B4"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5"/>
-      <c r="B5"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6"/>
-      <c r="B6"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7"/>
-      <c r="B7"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8"/>
-      <c r="B8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
